--- a/Code/Results/Cases/Case_5_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34774202621297</v>
+        <v>15.07846107257518</v>
       </c>
       <c r="C2">
-        <v>14.73359021300862</v>
+        <v>8.448949366929495</v>
       </c>
       <c r="D2">
-        <v>7.290713274559164</v>
+        <v>9.482794649332133</v>
       </c>
       <c r="E2">
-        <v>10.96073843772763</v>
+        <v>13.77982124675057</v>
       </c>
       <c r="F2">
-        <v>24.16479093308928</v>
+        <v>31.18773958003534</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.36265704924884</v>
+        <v>9.838890416809909</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.53833447746696</v>
+        <v>16.86215702231468</v>
       </c>
       <c r="O2">
-        <v>16.43313947922771</v>
+        <v>23.16503057641329</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.90499707603621</v>
+        <v>14.54113448007725</v>
       </c>
       <c r="C3">
-        <v>13.79020435730445</v>
+        <v>7.961981145490893</v>
       </c>
       <c r="D3">
-        <v>6.983430191571213</v>
+        <v>9.440132079982726</v>
       </c>
       <c r="E3">
-        <v>10.49943562936001</v>
+        <v>13.72411774595267</v>
       </c>
       <c r="F3">
-        <v>23.38005505212305</v>
+        <v>31.16627103514676</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.241614353441164</v>
+        <v>9.844916739155247</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.67779494259963</v>
+        <v>16.91142088730066</v>
       </c>
       <c r="O3">
-        <v>16.08749834596569</v>
+        <v>23.20166491549962</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96704513227808</v>
+        <v>14.20295255604326</v>
       </c>
       <c r="C4">
-        <v>13.17774619752289</v>
+        <v>7.647229857235717</v>
       </c>
       <c r="D4">
-        <v>6.790767973746056</v>
+        <v>9.415314629859827</v>
       </c>
       <c r="E4">
-        <v>10.21241715840974</v>
+        <v>13.69266667445603</v>
       </c>
       <c r="F4">
-        <v>22.91051488515182</v>
+        <v>31.16229911810432</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.170053836849864</v>
+        <v>9.85027239352274</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.7671625722118</v>
+        <v>16.9435513603388</v>
       </c>
       <c r="O4">
-        <v>15.89030127118759</v>
+        <v>23.23064480849427</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.57163512206525</v>
+        <v>14.06327637199842</v>
       </c>
       <c r="C5">
-        <v>12.91980143365841</v>
+        <v>7.515091603985273</v>
       </c>
       <c r="D5">
-        <v>6.711361677245486</v>
+        <v>9.405554902380937</v>
       </c>
       <c r="E5">
-        <v>10.0946696793366</v>
+        <v>13.68055134426848</v>
       </c>
       <c r="F5">
-        <v>22.72247632578141</v>
+        <v>31.16299647663767</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.141601625882343</v>
+        <v>9.852871317558911</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.80450889938734</v>
+        <v>16.95711894110785</v>
       </c>
       <c r="O5">
-        <v>15.81370374894327</v>
+        <v>23.24408008534252</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.50517865378423</v>
+        <v>14.03997727294003</v>
       </c>
       <c r="C6">
-        <v>12.87646468563627</v>
+        <v>7.492919034402751</v>
       </c>
       <c r="D6">
-        <v>6.698125707901072</v>
+        <v>9.403955864620448</v>
       </c>
       <c r="E6">
-        <v>10.07507557858046</v>
+        <v>13.67858221507923</v>
       </c>
       <c r="F6">
-        <v>22.69145836207669</v>
+        <v>31.1632521126704</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.136920415800138</v>
+        <v>9.853328022106322</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.81076598476195</v>
+        <v>16.95940049030879</v>
       </c>
       <c r="O6">
-        <v>15.80121121406478</v>
+        <v>23.24640902508654</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96176600083444</v>
+        <v>14.20107608626508</v>
       </c>
       <c r="C7">
-        <v>13.17430133286586</v>
+        <v>7.645463354524246</v>
       </c>
       <c r="D7">
-        <v>6.789700542795986</v>
+        <v>9.415181565918312</v>
       </c>
       <c r="E7">
-        <v>10.21083212155462</v>
+        <v>13.69250043174787</v>
       </c>
       <c r="F7">
-        <v>22.90796527699235</v>
+        <v>31.16229914720007</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.169667229350997</v>
+        <v>9.850305757193127</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.76766249344316</v>
+        <v>16.94373241653498</v>
       </c>
       <c r="O7">
-        <v>15.88925305156515</v>
+        <v>23.23081942634343</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86104474041385</v>
+        <v>14.89502703548895</v>
       </c>
       <c r="C8">
-        <v>14.4151948911919</v>
+        <v>8.284357798065301</v>
       </c>
       <c r="D8">
-        <v>7.185650658327848</v>
+        <v>9.467803124235703</v>
       </c>
       <c r="E8">
-        <v>10.80255754323471</v>
+        <v>13.76004961356246</v>
       </c>
       <c r="F8">
-        <v>23.89178933673635</v>
+        <v>31.17842633971458</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.320358084145791</v>
+        <v>9.840624836818138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.58563694912524</v>
+        <v>16.87875304272801</v>
       </c>
       <c r="O8">
-        <v>16.31083730427272</v>
+        <v>23.17631289845744</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.17610783220819</v>
+        <v>16.18197489636044</v>
       </c>
       <c r="C9">
-        <v>16.58604659878466</v>
+        <v>9.409338431093941</v>
       </c>
       <c r="D9">
-        <v>7.926409122676871</v>
+        <v>9.581590364313151</v>
       </c>
       <c r="E9">
-        <v>11.92679037470895</v>
+        <v>13.91388887860075</v>
       </c>
       <c r="F9">
-        <v>25.90964332770473</v>
+        <v>31.28303896781057</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.637068400568112</v>
+        <v>9.834764589959894</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.25896842760127</v>
+        <v>16.76622606063953</v>
       </c>
       <c r="O9">
-        <v>17.25696758035653</v>
+        <v>23.12109789492641</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36778517058375</v>
+        <v>17.07266139525742</v>
       </c>
       <c r="C10">
-        <v>18.02294253591916</v>
+        <v>10.15497155153094</v>
       </c>
       <c r="D10">
-        <v>8.444422131418767</v>
+        <v>9.671178845861569</v>
       </c>
       <c r="E10">
-        <v>12.72396060117952</v>
+        <v>14.03928598334532</v>
       </c>
       <c r="F10">
-        <v>27.43532019404359</v>
+        <v>31.40414659051233</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.881777653255002</v>
+        <v>9.8384386741564</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.03844637901632</v>
+        <v>16.69258312297936</v>
       </c>
       <c r="O10">
-        <v>18.02456472578545</v>
+        <v>23.11226970770452</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.31316519154354</v>
+        <v>17.46425112024098</v>
       </c>
       <c r="C11">
-        <v>18.64288826354867</v>
+        <v>10.47621611380621</v>
       </c>
       <c r="D11">
-        <v>8.673698100715617</v>
+        <v>9.713128027480908</v>
       </c>
       <c r="E11">
-        <v>13.07933747701803</v>
+        <v>14.09886259454937</v>
       </c>
       <c r="F11">
-        <v>28.1369113842141</v>
+        <v>31.46875411628483</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.995540836390296</v>
+        <v>9.841835627596641</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.94263543101201</v>
+        <v>16.66103151564338</v>
       </c>
       <c r="O11">
-        <v>18.38934708268269</v>
+        <v>23.11517968788406</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.66384175982812</v>
+        <v>17.61046284851109</v>
       </c>
       <c r="C12">
-        <v>18.872853070899</v>
+        <v>10.59525922326164</v>
       </c>
       <c r="D12">
-        <v>8.75956063128884</v>
+        <v>9.729175382349311</v>
       </c>
       <c r="E12">
-        <v>13.21280534971087</v>
+        <v>14.12177270271673</v>
       </c>
       <c r="F12">
-        <v>28.40355373396382</v>
+        <v>31.49457606352587</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.038959203587375</v>
+        <v>9.843369229392481</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.90703062331131</v>
+        <v>16.64936325708241</v>
       </c>
       <c r="O12">
-        <v>18.52970997227606</v>
+        <v>23.11727895438462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.58864104207295</v>
+        <v>17.57906757743619</v>
       </c>
       <c r="C13">
-        <v>18.82353841772252</v>
+        <v>10.56973734848654</v>
       </c>
       <c r="D13">
-        <v>8.741111840161212</v>
+        <v>9.725712244857995</v>
       </c>
       <c r="E13">
-        <v>13.18411061939928</v>
+        <v>14.11682328316196</v>
       </c>
       <c r="F13">
-        <v>28.34608619881887</v>
+        <v>31.48895472476941</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.029593389477848</v>
+        <v>9.843027960018803</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.91466815480796</v>
+        <v>16.65186379714669</v>
       </c>
       <c r="O13">
-        <v>18.49938141915071</v>
+        <v>23.11678247114964</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.34216161366276</v>
+        <v>17.47632226750066</v>
       </c>
       <c r="C14">
-        <v>18.66190339280659</v>
+        <v>10.48606219165941</v>
       </c>
       <c r="D14">
-        <v>8.680781498573269</v>
+        <v>9.714445060651414</v>
       </c>
       <c r="E14">
-        <v>13.09034040706556</v>
+        <v>14.10074049871003</v>
       </c>
       <c r="F14">
-        <v>28.1588294500158</v>
+        <v>31.47085139232831</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.999106166144164</v>
+        <v>9.841956848300381</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.93969245965896</v>
+        <v>16.66006595974646</v>
       </c>
       <c r="O14">
-        <v>18.40085024383016</v>
+        <v>23.11533240326936</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.19023599178477</v>
+        <v>17.41311427131698</v>
       </c>
       <c r="C15">
-        <v>18.56227443014697</v>
+        <v>10.43446885049694</v>
       </c>
       <c r="D15">
-        <v>8.643701391207745</v>
+        <v>9.707564403783337</v>
       </c>
       <c r="E15">
-        <v>13.03275793533767</v>
+        <v>14.09093443517536</v>
       </c>
       <c r="F15">
-        <v>28.04425190847939</v>
+        <v>31.45993884747283</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.980475642202213</v>
+        <v>9.841332931752449</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.95510962405888</v>
+        <v>16.6651264224239</v>
       </c>
       <c r="O15">
-        <v>18.34078680375618</v>
+        <v>23.11457410116741</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.30497242724802</v>
+        <v>17.04678597651366</v>
       </c>
       <c r="C16">
-        <v>17.98175366320862</v>
+        <v>10.1336140753482</v>
       </c>
       <c r="D16">
-        <v>8.429306275820204</v>
+        <v>9.668460588273478</v>
       </c>
       <c r="E16">
-        <v>12.70058411288349</v>
+        <v>14.03544225489192</v>
       </c>
       <c r="F16">
-        <v>27.38961046872388</v>
+        <v>31.40011484482728</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.874390991775209</v>
+        <v>9.838251325911569</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.04480088448209</v>
+        <v>16.69468426003274</v>
       </c>
       <c r="O16">
-        <v>18.00103780663902</v>
+        <v>23.11221903929701</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.74874293127869</v>
+        <v>16.81848428242018</v>
       </c>
       <c r="C17">
-        <v>17.61702506354773</v>
+        <v>9.944433091413247</v>
       </c>
       <c r="D17">
-        <v>8.296115972381813</v>
+        <v>9.644770882132873</v>
       </c>
       <c r="E17">
-        <v>12.49489713827786</v>
+        <v>14.00203821258977</v>
       </c>
       <c r="F17">
-        <v>26.98984755123223</v>
+        <v>31.36584407326631</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.809927562602811</v>
+        <v>9.836802239698866</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.10099679362795</v>
+        <v>16.71331576683315</v>
       </c>
       <c r="O17">
-        <v>17.79659571292117</v>
+        <v>23.11254944668219</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.42394867745854</v>
+        <v>16.6858984137911</v>
       </c>
       <c r="C18">
-        <v>17.40406684035733</v>
+        <v>9.833932860037118</v>
       </c>
       <c r="D18">
-        <v>8.218910666512182</v>
+        <v>9.63125826150848</v>
       </c>
       <c r="E18">
-        <v>12.37591060485857</v>
+        <v>13.98306440106145</v>
       </c>
       <c r="F18">
-        <v>26.76063079278062</v>
+        <v>31.34702887183825</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.773080537272323</v>
+        <v>9.836131247031185</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.1337413255494</v>
+        <v>16.72421559409184</v>
       </c>
       <c r="O18">
-        <v>17.68047500835342</v>
+        <v>23.11339136574826</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.31314009438552</v>
+        <v>16.64079245322498</v>
       </c>
       <c r="C19">
-        <v>17.3314158910589</v>
+        <v>9.796230259898655</v>
       </c>
       <c r="D19">
-        <v>8.192669101058899</v>
+        <v>9.626702832438689</v>
       </c>
       <c r="E19">
-        <v>12.33550905375514</v>
+        <v>13.9766817274431</v>
       </c>
       <c r="F19">
-        <v>26.68314916909618</v>
+        <v>31.34081265722807</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.760644807647934</v>
+        <v>9.83593199185718</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.14489975122549</v>
+        <v>16.72793761957631</v>
       </c>
       <c r="O19">
-        <v>17.64141137161112</v>
+        <v>23.11378832951467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.80845735073362</v>
+        <v>16.84292003881799</v>
       </c>
       <c r="C20">
-        <v>17.65617939204447</v>
+        <v>9.964746663557429</v>
       </c>
       <c r="D20">
-        <v>8.310356520725373</v>
+        <v>9.647281058889751</v>
       </c>
       <c r="E20">
-        <v>12.5168638350312</v>
+        <v>14.00556946520571</v>
       </c>
       <c r="F20">
-        <v>27.03232984091539</v>
+        <v>31.36939955591586</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.816766035181566</v>
+        <v>9.836939686961616</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.09497075852318</v>
+        <v>16.71131342635636</v>
       </c>
       <c r="O20">
-        <v>17.81820701540785</v>
+        <v>23.112446794603</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.41475635053818</v>
+        <v>17.50655825298763</v>
       </c>
       <c r="C21">
-        <v>18.70950921719232</v>
+        <v>10.51071048128754</v>
       </c>
       <c r="D21">
-        <v>8.698528309492866</v>
+        <v>9.717750184843933</v>
       </c>
       <c r="E21">
-        <v>13.11791340031505</v>
+        <v>14.10545502890242</v>
       </c>
       <c r="F21">
-        <v>28.21380591205132</v>
+        <v>31.47613206948939</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.008051897529811</v>
+        <v>9.842264757302036</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.93232359836471</v>
+        <v>16.65764920082</v>
       </c>
       <c r="O21">
-        <v>18.42973087413671</v>
+        <v>23.11573124976854</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.42196125771529</v>
+        <v>17.92814504276766</v>
       </c>
       <c r="C22">
-        <v>19.36999923919999</v>
+        <v>10.8523370831756</v>
       </c>
       <c r="D22">
-        <v>8.946616732816725</v>
+        <v>9.76474605832472</v>
       </c>
       <c r="E22">
-        <v>13.50427350415872</v>
+        <v>14.17276744050614</v>
       </c>
       <c r="F22">
-        <v>28.9915608192796</v>
+        <v>31.55378763100788</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.135038762347763</v>
+        <v>9.847185642317953</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.82998517130164</v>
+        <v>16.62420628187101</v>
       </c>
       <c r="O22">
-        <v>18.84237947333586</v>
+        <v>23.12369099130168</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.88825925825445</v>
+        <v>17.70428303281447</v>
       </c>
       <c r="C23">
-        <v>19.02001956807623</v>
+        <v>10.67140107951907</v>
       </c>
       <c r="D23">
-        <v>8.814731638283918</v>
+        <v>9.739580718998925</v>
       </c>
       <c r="E23">
-        <v>13.29867273371403</v>
+        <v>14.13666059856419</v>
       </c>
       <c r="F23">
-        <v>28.57597824889662</v>
+        <v>31.51162299396041</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.06708663715821</v>
+        <v>9.844427785316661</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.88423206159048</v>
+        <v>16.64190646726256</v>
       </c>
       <c r="O23">
-        <v>18.6209567546509</v>
+        <v>23.11891059629567</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.78147607621529</v>
+        <v>16.83187677344099</v>
       </c>
       <c r="C24">
-        <v>17.63848791206867</v>
+        <v>9.955568307847191</v>
       </c>
       <c r="D24">
-        <v>8.303920335289163</v>
+        <v>9.646145874248253</v>
       </c>
       <c r="E24">
-        <v>12.5069349738822</v>
+        <v>14.00397226647189</v>
       </c>
       <c r="F24">
-        <v>27.01312168106342</v>
+        <v>31.36778935671545</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.813673694604973</v>
+        <v>9.836877042042762</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.09769377072575</v>
+        <v>16.71221809779279</v>
       </c>
       <c r="O24">
-        <v>17.80843213445558</v>
+        <v>23.11249117284317</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32254975374976</v>
+        <v>15.84281578287488</v>
       </c>
       <c r="C25">
-        <v>16.02669921572197</v>
+        <v>9.11904071006456</v>
       </c>
       <c r="D25">
-        <v>7.730346006363571</v>
+        <v>9.54972065292208</v>
       </c>
       <c r="E25">
-        <v>11.62730161715004</v>
+        <v>13.87004790491671</v>
       </c>
       <c r="F25">
-        <v>25.35546639423251</v>
+        <v>31.24694186168529</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.54921491673771</v>
+        <v>9.834946569094271</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.34400380197777</v>
+        <v>16.79507811521203</v>
       </c>
       <c r="O25">
-        <v>16.98823752313564</v>
+        <v>23.13047551476549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.07846107257518</v>
+        <v>21.347742026213</v>
       </c>
       <c r="C2">
-        <v>8.448949366929495</v>
+        <v>14.73359021300862</v>
       </c>
       <c r="D2">
-        <v>9.482794649332133</v>
+        <v>7.290713274559073</v>
       </c>
       <c r="E2">
-        <v>13.77982124675057</v>
+        <v>10.96073843772758</v>
       </c>
       <c r="F2">
-        <v>31.18773958003534</v>
+        <v>24.16479093308924</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.838890416809909</v>
+        <v>6.362657049248852</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.86215702231468</v>
+        <v>11.53833447746699</v>
       </c>
       <c r="O2">
-        <v>23.16503057641329</v>
+        <v>16.43313947922771</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.54113448007725</v>
+        <v>19.90499707603618</v>
       </c>
       <c r="C3">
-        <v>7.961981145490893</v>
+        <v>13.79020435730445</v>
       </c>
       <c r="D3">
-        <v>9.440132079982726</v>
+        <v>6.983430191571174</v>
       </c>
       <c r="E3">
-        <v>13.72411774595267</v>
+        <v>10.49943562936005</v>
       </c>
       <c r="F3">
-        <v>31.16627103514676</v>
+        <v>23.380055052123</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.844916739155247</v>
+        <v>6.241614353441253</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.91142088730066</v>
+        <v>11.67779494259963</v>
       </c>
       <c r="O3">
-        <v>23.20166491549962</v>
+        <v>16.08749834596567</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.20295255604326</v>
+        <v>18.9670451322781</v>
       </c>
       <c r="C4">
-        <v>7.647229857235717</v>
+        <v>13.17774619752291</v>
       </c>
       <c r="D4">
-        <v>9.415314629859827</v>
+        <v>6.790767973746103</v>
       </c>
       <c r="E4">
-        <v>13.69266667445603</v>
+        <v>10.21241715840969</v>
       </c>
       <c r="F4">
-        <v>31.16229911810432</v>
+        <v>22.91051488515174</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.85027239352274</v>
+        <v>6.170053836849798</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.9435513603388</v>
+        <v>11.76716257221177</v>
       </c>
       <c r="O4">
-        <v>23.23064480849427</v>
+        <v>15.89030127118752</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.06327637199842</v>
+        <v>18.57163512206515</v>
       </c>
       <c r="C5">
-        <v>7.515091603985273</v>
+        <v>12.91980143365845</v>
       </c>
       <c r="D5">
-        <v>9.405554902380937</v>
+        <v>6.711361677245373</v>
       </c>
       <c r="E5">
-        <v>13.68055134426848</v>
+        <v>10.09466967933655</v>
       </c>
       <c r="F5">
-        <v>31.16299647663767</v>
+        <v>22.72247632578148</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.852871317558911</v>
+        <v>6.141601625882344</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.95711894110785</v>
+        <v>11.80450889938741</v>
       </c>
       <c r="O5">
-        <v>23.24408008534252</v>
+        <v>15.81370374894342</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.03997727294003</v>
+        <v>18.50517865378419</v>
       </c>
       <c r="C6">
-        <v>7.492919034402751</v>
+        <v>12.87646468563622</v>
       </c>
       <c r="D6">
-        <v>9.403955864620448</v>
+        <v>6.698125707901123</v>
       </c>
       <c r="E6">
-        <v>13.67858221507923</v>
+        <v>10.07507557858049</v>
       </c>
       <c r="F6">
-        <v>31.1632521126704</v>
+        <v>22.69145836207677</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.853328022106322</v>
+        <v>6.136920415800104</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.95940049030879</v>
+        <v>11.81076598476202</v>
       </c>
       <c r="O6">
-        <v>23.24640902508654</v>
+        <v>15.80121121406488</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.20107608626508</v>
+        <v>18.96176600083442</v>
       </c>
       <c r="C7">
-        <v>7.645463354524246</v>
+        <v>13.17430133286586</v>
       </c>
       <c r="D7">
-        <v>9.415181565918312</v>
+        <v>6.789700542795886</v>
       </c>
       <c r="E7">
-        <v>13.69250043174787</v>
+        <v>10.21083212155459</v>
       </c>
       <c r="F7">
-        <v>31.16229914720007</v>
+        <v>22.90796527699232</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.850305757193127</v>
+        <v>6.169667229350995</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.94373241653498</v>
+        <v>11.76766249344313</v>
       </c>
       <c r="O7">
-        <v>23.23081942634343</v>
+        <v>15.88925305156515</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.89502703548895</v>
+        <v>20.86104474041384</v>
       </c>
       <c r="C8">
-        <v>8.284357798065301</v>
+        <v>14.41519489119182</v>
       </c>
       <c r="D8">
-        <v>9.467803124235703</v>
+        <v>7.185650658327786</v>
       </c>
       <c r="E8">
-        <v>13.76004961356246</v>
+        <v>10.80255754323468</v>
       </c>
       <c r="F8">
-        <v>31.17842633971458</v>
+        <v>23.89178933673631</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.840624836818138</v>
+        <v>6.320358084145769</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.87875304272801</v>
+        <v>11.58563694912524</v>
       </c>
       <c r="O8">
-        <v>23.17631289845744</v>
+        <v>16.31083730427271</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.18197489636044</v>
+        <v>24.17610783220822</v>
       </c>
       <c r="C9">
-        <v>9.409338431093941</v>
+        <v>16.58604659878461</v>
       </c>
       <c r="D9">
-        <v>9.581590364313151</v>
+        <v>7.926409122676814</v>
       </c>
       <c r="E9">
-        <v>13.91388887860075</v>
+        <v>11.92679037470895</v>
       </c>
       <c r="F9">
-        <v>31.28303896781057</v>
+        <v>25.90964332770468</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.834764589959894</v>
+        <v>6.637068400568144</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.76622606063953</v>
+        <v>11.25896842760123</v>
       </c>
       <c r="O9">
-        <v>23.12109789492641</v>
+        <v>17.2569675803565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.07266139525742</v>
+        <v>26.36778517058381</v>
       </c>
       <c r="C10">
-        <v>10.15497155153094</v>
+        <v>18.02294253591926</v>
       </c>
       <c r="D10">
-        <v>9.671178845861569</v>
+        <v>8.444422131418722</v>
       </c>
       <c r="E10">
-        <v>14.03928598334532</v>
+        <v>12.72396060117951</v>
       </c>
       <c r="F10">
-        <v>31.40414659051233</v>
+        <v>27.43532019404355</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.8384386741564</v>
+        <v>6.881777653254987</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.69258312297936</v>
+        <v>11.03844637901629</v>
       </c>
       <c r="O10">
-        <v>23.11226970770452</v>
+        <v>18.02456472578541</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.46425112024098</v>
+        <v>27.31316519154356</v>
       </c>
       <c r="C11">
-        <v>10.47621611380621</v>
+        <v>18.64288826354859</v>
       </c>
       <c r="D11">
-        <v>9.713128027480908</v>
+        <v>8.673698100715633</v>
       </c>
       <c r="E11">
-        <v>14.09886259454937</v>
+        <v>13.07933747701803</v>
       </c>
       <c r="F11">
-        <v>31.46875411628483</v>
+        <v>28.13691138421409</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.841835627596641</v>
+        <v>6.995540836390296</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.66103151564338</v>
+        <v>10.94263543101198</v>
       </c>
       <c r="O11">
-        <v>23.11517968788406</v>
+        <v>18.38934708268268</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.61046284851109</v>
+        <v>27.66384175982818</v>
       </c>
       <c r="C12">
-        <v>10.59525922326164</v>
+        <v>18.87285307089898</v>
       </c>
       <c r="D12">
-        <v>9.729175382349311</v>
+        <v>8.759560631288773</v>
       </c>
       <c r="E12">
-        <v>14.12177270271673</v>
+        <v>13.21280534971086</v>
       </c>
       <c r="F12">
-        <v>31.49457606352587</v>
+        <v>28.40355373396382</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.843369229392481</v>
+        <v>7.038959203587387</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.64936325708241</v>
+        <v>10.90703062331136</v>
       </c>
       <c r="O12">
-        <v>23.11727895438462</v>
+        <v>18.52970997227609</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.57906757743619</v>
+        <v>27.58864104207296</v>
       </c>
       <c r="C13">
-        <v>10.56973734848654</v>
+        <v>18.82353841772259</v>
       </c>
       <c r="D13">
-        <v>9.725712244857995</v>
+        <v>8.741111840161139</v>
       </c>
       <c r="E13">
-        <v>14.11682328316196</v>
+        <v>13.18411061939924</v>
       </c>
       <c r="F13">
-        <v>31.48895472476941</v>
+        <v>28.34608619881881</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.843027960018803</v>
+        <v>7.029593389477874</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.65186379714669</v>
+        <v>10.91466815480793</v>
       </c>
       <c r="O13">
-        <v>23.11678247114964</v>
+        <v>18.49938141915067</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.47632226750066</v>
+        <v>27.34216161366275</v>
       </c>
       <c r="C14">
-        <v>10.48606219165941</v>
+        <v>18.66190339280664</v>
       </c>
       <c r="D14">
-        <v>9.714445060651414</v>
+        <v>8.680781498573213</v>
       </c>
       <c r="E14">
-        <v>14.10074049871003</v>
+        <v>13.09034040706553</v>
       </c>
       <c r="F14">
-        <v>31.47085139232831</v>
+        <v>28.15882945001578</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.841956848300381</v>
+        <v>6.99910616614414</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.66006595974646</v>
+        <v>10.93969245965899</v>
       </c>
       <c r="O14">
-        <v>23.11533240326936</v>
+        <v>18.40085024383016</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.41311427131698</v>
+        <v>27.19023599178476</v>
       </c>
       <c r="C15">
-        <v>10.43446885049694</v>
+        <v>18.56227443014692</v>
       </c>
       <c r="D15">
-        <v>9.707564403783337</v>
+        <v>8.643701391207754</v>
       </c>
       <c r="E15">
-        <v>14.09093443517536</v>
+        <v>13.03275793533767</v>
       </c>
       <c r="F15">
-        <v>31.45993884747283</v>
+        <v>28.04425190847939</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.841332931752449</v>
+        <v>6.980475642202184</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.6651264224239</v>
+        <v>10.95510962405879</v>
       </c>
       <c r="O15">
-        <v>23.11457410116741</v>
+        <v>18.34078680375616</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.04678597651366</v>
+        <v>26.30497242724802</v>
       </c>
       <c r="C16">
-        <v>10.1336140753482</v>
+        <v>17.98175366320855</v>
       </c>
       <c r="D16">
-        <v>9.668460588273478</v>
+        <v>8.429306275820156</v>
       </c>
       <c r="E16">
-        <v>14.03544225489192</v>
+        <v>12.7005841128835</v>
       </c>
       <c r="F16">
-        <v>31.40011484482728</v>
+        <v>27.38961046872392</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.838251325911569</v>
+        <v>6.874390991775208</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.69468426003274</v>
+        <v>11.04480088448212</v>
       </c>
       <c r="O16">
-        <v>23.11221903929701</v>
+        <v>18.00103780663907</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.81848428242018</v>
+        <v>25.74874293127874</v>
       </c>
       <c r="C17">
-        <v>9.944433091413247</v>
+        <v>17.61702506354765</v>
       </c>
       <c r="D17">
-        <v>9.644770882132873</v>
+        <v>8.296115972381731</v>
       </c>
       <c r="E17">
-        <v>14.00203821258977</v>
+        <v>12.49489713827782</v>
       </c>
       <c r="F17">
-        <v>31.36584407326631</v>
+        <v>26.98984755123222</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.836802239698866</v>
+        <v>6.809927562602809</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.71331576683315</v>
+        <v>11.10099679362792</v>
       </c>
       <c r="O17">
-        <v>23.11254944668219</v>
+        <v>17.7965957129212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.6858984137911</v>
+        <v>25.42394867745858</v>
       </c>
       <c r="C18">
-        <v>9.833932860037118</v>
+        <v>17.40406684035719</v>
       </c>
       <c r="D18">
-        <v>9.63125826150848</v>
+        <v>8.218910666512222</v>
       </c>
       <c r="E18">
-        <v>13.98306440106145</v>
+        <v>12.37591060485857</v>
       </c>
       <c r="F18">
-        <v>31.34702887183825</v>
+        <v>26.76063079278058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.836131247031185</v>
+        <v>6.77308053727227</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.72421559409184</v>
+        <v>11.13374132554928</v>
       </c>
       <c r="O18">
-        <v>23.11339136574826</v>
+        <v>17.68047500835339</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.64079245322498</v>
+        <v>25.31314009438548</v>
       </c>
       <c r="C19">
-        <v>9.796230259898655</v>
+        <v>17.33141589105891</v>
       </c>
       <c r="D19">
-        <v>9.626702832438689</v>
+        <v>8.192669101058907</v>
       </c>
       <c r="E19">
-        <v>13.9766817274431</v>
+        <v>12.33550905375516</v>
       </c>
       <c r="F19">
-        <v>31.34081265722807</v>
+        <v>26.68314916909621</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.83593199185718</v>
+        <v>6.760644807647953</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.72793761957631</v>
+        <v>11.14489975122553</v>
       </c>
       <c r="O19">
-        <v>23.11378832951467</v>
+        <v>17.64141137161115</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.84292003881799</v>
+        <v>25.80845735073362</v>
       </c>
       <c r="C20">
-        <v>9.964746663557429</v>
+        <v>17.65617939204454</v>
       </c>
       <c r="D20">
-        <v>9.647281058889751</v>
+        <v>8.31035652072536</v>
       </c>
       <c r="E20">
-        <v>14.00556946520571</v>
+        <v>12.51686383503118</v>
       </c>
       <c r="F20">
-        <v>31.36939955591586</v>
+        <v>27.0323298409154</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.836939686961616</v>
+        <v>6.816766035181542</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.71131342635636</v>
+        <v>11.09497075852318</v>
       </c>
       <c r="O20">
-        <v>23.112446794603</v>
+        <v>17.81820701540784</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.50655825298763</v>
+        <v>27.41475635053821</v>
       </c>
       <c r="C21">
-        <v>10.51071048128754</v>
+        <v>18.70950921719235</v>
       </c>
       <c r="D21">
-        <v>9.717750184843933</v>
+        <v>8.698528309492833</v>
       </c>
       <c r="E21">
-        <v>14.10545502890242</v>
+        <v>13.11791340031504</v>
       </c>
       <c r="F21">
-        <v>31.47613206948939</v>
+        <v>28.21380591205127</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.842264757302036</v>
+        <v>7.008051897529769</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.65764920082</v>
+        <v>10.93232359836466</v>
       </c>
       <c r="O21">
-        <v>23.11573124976854</v>
+        <v>18.42973087413666</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.92814504276766</v>
+        <v>28.42196125771529</v>
       </c>
       <c r="C22">
-        <v>10.8523370831756</v>
+        <v>19.3699992391999</v>
       </c>
       <c r="D22">
-        <v>9.76474605832472</v>
+        <v>8.946616732816715</v>
       </c>
       <c r="E22">
-        <v>14.17276744050614</v>
+        <v>13.50427350415872</v>
       </c>
       <c r="F22">
-        <v>31.55378763100788</v>
+        <v>28.99156081927961</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.847185642317953</v>
+        <v>7.135038762347766</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.62420628187101</v>
+        <v>10.82998517130164</v>
       </c>
       <c r="O22">
-        <v>23.12369099130168</v>
+        <v>18.84237947333589</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.70428303281447</v>
+        <v>27.88825925825444</v>
       </c>
       <c r="C23">
-        <v>10.67140107951907</v>
+        <v>19.02001956807629</v>
       </c>
       <c r="D23">
-        <v>9.739580718998925</v>
+        <v>8.814731638283913</v>
       </c>
       <c r="E23">
-        <v>14.13666059856419</v>
+        <v>13.29867273371401</v>
       </c>
       <c r="F23">
-        <v>31.51162299396041</v>
+        <v>28.57597824889667</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.844427785316661</v>
+        <v>7.067086637158175</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.64190646726256</v>
+        <v>10.88423206159055</v>
       </c>
       <c r="O23">
-        <v>23.11891059629567</v>
+        <v>18.62095675465094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.83187677344099</v>
+        <v>25.78147607621519</v>
       </c>
       <c r="C24">
-        <v>9.955568307847191</v>
+        <v>17.63848791206867</v>
       </c>
       <c r="D24">
-        <v>9.646145874248253</v>
+        <v>8.303920335289117</v>
       </c>
       <c r="E24">
-        <v>14.00397226647189</v>
+        <v>12.50693497388213</v>
       </c>
       <c r="F24">
-        <v>31.36778935671545</v>
+        <v>27.01312168106342</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.836877042042762</v>
+        <v>6.813673694604966</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.71221809779279</v>
+        <v>11.09769377072582</v>
       </c>
       <c r="O24">
-        <v>23.11249117284317</v>
+        <v>17.80843213445562</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.84281578287488</v>
+        <v>23.32254975374976</v>
       </c>
       <c r="C25">
-        <v>9.11904071006456</v>
+        <v>16.02669921572206</v>
       </c>
       <c r="D25">
-        <v>9.54972065292208</v>
+        <v>7.730346006363605</v>
       </c>
       <c r="E25">
-        <v>13.87004790491671</v>
+        <v>11.62730161715002</v>
       </c>
       <c r="F25">
-        <v>31.24694186168529</v>
+        <v>25.35546639423244</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.834946569094271</v>
+        <v>6.549214916737703</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.79507811521203</v>
+        <v>11.34400380197778</v>
       </c>
       <c r="O25">
-        <v>23.13047551476549</v>
+        <v>16.98823752313561</v>
       </c>
     </row>
   </sheetData>
